--- a/Relaciones.xlsx
+++ b/Relaciones.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\skillnest\00 Gestion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\skillnest\modulo3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24A2514-49E3-4165-98BD-44A37CAD22A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1523C2-4357-43BF-B880-656F4088480B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27915" yWindow="-2220" windowWidth="28035" windowHeight="18240" xr2:uid="{A7211CC8-91F7-4F87-989E-74104C56CBC9}"/>
+    <workbookView xWindow="-27915" yWindow="-2220" windowWidth="28035" windowHeight="18240" tabRatio="507" activeTab="1" xr2:uid="{A7211CC8-91F7-4F87-989E-74104C56CBC9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Relaciones" sheetId="1" r:id="rId1"/>
+    <sheet name="Normalizacion" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="154">
   <si>
     <t>id</t>
   </si>
@@ -638,13 +639,732 @@
       </rPr>
       <t xml:space="preserve"> personas(id) </t>
     </r>
+  </si>
+  <si>
+    <t>usuarios</t>
+  </si>
+  <si>
+    <t>telefonos</t>
+  </si>
+  <si>
+    <t>Ana</t>
+  </si>
+  <si>
+    <t>555-111,555-222</t>
+  </si>
+  <si>
+    <t>telefono1</t>
+  </si>
+  <si>
+    <t>telefono2</t>
+  </si>
+  <si>
+    <t>555-111</t>
+  </si>
+  <si>
+    <t>555-222</t>
+  </si>
+  <si>
+    <t>telefono</t>
+  </si>
+  <si>
+    <t>id (PK)</t>
+  </si>
+  <si>
+    <t>1FN</t>
+  </si>
+  <si>
+    <t>Requisito principal: Cada columna de una tabla debe contener valores atómicos, es decir, valores únicos y no divisibles.
+No debe haber grupos repetitivos de columnas.
+Cada fila debe ser única y estar identificada por una clave primaria.</t>
+  </si>
+  <si>
+    <t>2NF</t>
+  </si>
+  <si>
+    <t>Cumple con la 1NF.</t>
+  </si>
+  <si>
+    <t>Todos los atributos no clave dependen completamente de la clave primaria.</t>
+  </si>
+  <si>
+    <t>Si una tabla tiene una clave compuesta, cada atributo no clave debe depender de la clave completa, no solo de una parte de ella.</t>
+  </si>
+  <si>
+    <t>3NF</t>
+  </si>
+  <si>
+    <t>Cumple con la 2NF.</t>
+  </si>
+  <si>
+    <t>No debe haber dependencias transitivas: si A depende de B, y B depende de C, entonces A no debe depender de C.</t>
+  </si>
+  <si>
+    <t>Se eliminan las dependencias transitivas moviendo los atributos a nuevas tablas</t>
+  </si>
+  <si>
+    <t>usuario_id</t>
+  </si>
+  <si>
+    <r>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF990055"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9A6E3A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Cliente     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9A6E3A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Producto         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9A6E3A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Cantidad </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9A6E3A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> PrecioUnitario </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9A6E3A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Dirección         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9A6E3A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>|</t>
+    </r>
+  </si>
+  <si>
+    <t>|----|-------------|------------------|----------|----------------|-------------------|</t>
+  </si>
+  <si>
+    <r>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF990055"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9A6E3A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Juan </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF990055"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">érez  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9A6E3A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Laptop           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9A6E3A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF990055"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9A6E3A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF990055"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9A6E3A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Calle Falsa </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF990055"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>123</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9A6E3A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>|</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF990055"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9A6E3A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Ana García  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9A6E3A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Mouse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Teclado   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9A6E3A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF990055"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF990055"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9A6E3A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF990055"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF990055"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9A6E3A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Av</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF999999"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Siempre Viva  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9A6E3A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>|</t>
+    </r>
+  </si>
+  <si>
+    <t>cliente</t>
+  </si>
+  <si>
+    <t>producto1</t>
+  </si>
+  <si>
+    <t>producto2</t>
+  </si>
+  <si>
+    <t>cantidad1</t>
+  </si>
+  <si>
+    <t>precioInitario</t>
+  </si>
+  <si>
+    <t>precuioUnitario2</t>
+  </si>
+  <si>
+    <t>Juan Perez</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>direccion</t>
+  </si>
+  <si>
+    <t>Ana Garcia</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>Teclado</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Av. Siempre Viva</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Calle Falsa 123</t>
+  </si>
+  <si>
+    <t>precio_unitario</t>
+  </si>
+  <si>
+    <t>cantidad2</t>
+  </si>
+  <si>
+    <t>productos</t>
+  </si>
+  <si>
+    <t>cliente_id</t>
+  </si>
+  <si>
+    <t>detalle</t>
+  </si>
+  <si>
+    <t>Compra de Laptop</t>
+  </si>
+  <si>
+    <t>ventas</t>
+  </si>
+  <si>
+    <t>detalle_ventas</t>
+  </si>
+  <si>
+    <t>Compra de Mouse y Teclado</t>
+  </si>
+  <si>
+    <t>venta_id</t>
+  </si>
+  <si>
+    <t>neto</t>
+  </si>
+  <si>
+    <t>IVA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -680,8 +1400,39 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF656565"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9A6E3A"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF990055"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF999999"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -691,6 +1442,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F2F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,7 +1503,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -743,12 +1512,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -758,7 +1523,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -770,7 +1535,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -784,6 +1548,36 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1122,8 +1916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A39656-344E-45F4-90AF-2D835DABF110}">
   <dimension ref="A2:L79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47:H54"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1211,8 +2005,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="12" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
@@ -1229,31 +2022,31 @@
       <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1279,20 +2072,20 @@
       <c r="G11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <f ca="1">TODAY()</f>
-        <v>45853</v>
-      </c>
-      <c r="I11" s="5">
+        <v>45855</v>
+      </c>
+      <c r="I11" s="4">
         <v>46901</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="10">
-        <v>1</v>
-      </c>
-      <c r="L11" s="16">
+      <c r="K11" s="8">
+        <v>1</v>
+      </c>
+      <c r="L11" s="13">
         <v>46023</v>
       </c>
     </row>
@@ -1312,17 +2105,17 @@
       <c r="G12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="5">
-        <f t="shared" ref="H12:H13" ca="1" si="0">TODAY()</f>
-        <v>45853</v>
-      </c>
-      <c r="I12" s="5">
+      <c r="H12" s="4">
+        <f t="shared" ref="H12" ca="1" si="0">TODAY()</f>
+        <v>45855</v>
+      </c>
+      <c r="I12" s="4">
         <v>47715</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="8">
         <v>2</v>
       </c>
     </row>
@@ -1339,19 +2132,19 @@
       <c r="F13" s="1">
         <v>3</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <v>46023</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="4">
         <v>47350</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K13" s="10"/>
+      <c r="K13" s="8"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
@@ -1370,9 +2163,9 @@
       <c r="C17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -1384,9 +2177,9 @@
       <c r="C18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="12"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -1411,18 +2204,18 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="18" t="s">
+      <c r="G24" s="15" t="s">
         <v>29</v>
       </c>
       <c r="H24" s="1"/>
@@ -1440,25 +2233,25 @@
       <c r="C25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J25" s="17" t="s">
+      <c r="J25" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="K25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L25" s="4" t="s">
+      <c r="L25" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1484,7 +2277,7 @@
       <c r="I26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J26" s="6">
         <v>1</v>
       </c>
       <c r="K26" s="1" t="s">
@@ -1516,7 +2309,7 @@
       <c r="I27" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J27" s="18"/>
+      <c r="J27" s="15"/>
       <c r="K27" s="1" t="s">
         <v>40</v>
       </c>
@@ -1537,19 +2330,19 @@
       <c r="F28" s="1">
         <v>3</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="G28" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H28" s="1">
         <v>444</v>
       </c>
-      <c r="I28" s="15" t="s">
+      <c r="I28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J28" s="18">
-        <v>2</v>
-      </c>
-      <c r="K28" s="15" t="s">
+      <c r="J28" s="15">
+        <v>2</v>
+      </c>
+      <c r="K28" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L28" s="1">
@@ -1557,14 +2350,14 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E30" s="14"/>
+      <c r="E30" s="12"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F31" s="1"/>
-      <c r="G31" s="18" t="s">
+      <c r="G31" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="J31" s="18" t="s">
+      <c r="J31" s="15" t="s">
         <v>33</v>
       </c>
       <c r="K31" s="1"/>
@@ -1621,15 +2414,15 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E38" s="19" t="s">
+      <c r="E38" s="16" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H40" s="8" t="s">
+      <c r="H40" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1666,7 +2459,7 @@
       <c r="B42" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C42" s="17" t="s">
         <v>58</v>
       </c>
       <c r="D42" s="1">
@@ -1681,7 +2474,7 @@
       <c r="H42" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I42" s="5">
+      <c r="I42" s="4">
         <v>45905</v>
       </c>
     </row>
@@ -1707,7 +2500,7 @@
       <c r="H43" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I43" s="5">
+      <c r="I43" s="4">
         <v>45916</v>
       </c>
     </row>
@@ -1733,7 +2526,7 @@
       <c r="H44" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I44" s="5">
+      <c r="I44" s="4">
         <v>45919</v>
       </c>
     </row>
@@ -1752,10 +2545,10 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="H47" s="22" t="s">
+      <c r="H47" s="19" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1769,10 +2562,10 @@
       <c r="E48" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F48" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H48" s="23" t="s">
+      <c r="H48" s="20" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1786,10 +2579,10 @@
       <c r="E49" s="2">
         <v>1</v>
       </c>
-      <c r="F49" s="5">
+      <c r="F49" s="4">
         <v>45852</v>
       </c>
-      <c r="H49" s="23" t="s">
+      <c r="H49" s="20" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1804,7 +2597,7 @@
         <v>2</v>
       </c>
       <c r="F50" s="1"/>
-      <c r="H50" s="23" t="s">
+      <c r="H50" s="20" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1819,7 +2612,7 @@
         <v>3</v>
       </c>
       <c r="F51" s="1"/>
-      <c r="H51" s="23" t="s">
+      <c r="H51" s="20" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1834,7 +2627,7 @@
         <v>2</v>
       </c>
       <c r="F52" s="1"/>
-      <c r="H52" s="23" t="s">
+      <c r="H52" s="20" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1849,7 +2642,7 @@
         <v>3</v>
       </c>
       <c r="F53" s="1"/>
-      <c r="H53" s="23" t="s">
+      <c r="H53" s="20" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1863,10 +2656,10 @@
       <c r="E54" s="2">
         <v>1</v>
       </c>
-      <c r="F54" s="5">
+      <c r="F54" s="4">
         <v>45852</v>
       </c>
-      <c r="H54" s="23" t="s">
+      <c r="H54" s="20" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1914,7 +2707,7 @@
       <c r="A64">
         <v>1</v>
       </c>
-      <c r="B64" s="21" t="s">
+      <c r="B64" s="18" t="s">
         <v>58</v>
       </c>
       <c r="C64" t="s">
@@ -1959,7 +2752,7 @@
       <c r="E70">
         <v>1</v>
       </c>
-      <c r="F70" s="16">
+      <c r="F70" s="13">
         <v>45853</v>
       </c>
     </row>
@@ -2070,4 +2863,853 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId13"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6337CEFE-54E0-43A5-91F9-8174F9800857}">
+  <dimension ref="A2:N74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" style="21" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="21"/>
+    <col min="5" max="5" width="17.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" style="21" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="21">
+        <v>1</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="21">
+        <v>1</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="J5" s="29" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F7" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E8" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E9" s="22">
+        <v>1</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E10" s="22">
+        <v>1</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E11" s="22"/>
+      <c r="J11" s="21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B12" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="120.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="207" x14ac:dyDescent="0.25">
+      <c r="A14" s="21">
+        <v>1</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="22">
+        <v>1</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="21">
+        <v>1</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="21">
+        <v>2</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" s="22">
+        <v>1</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J19" s="21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B20" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="189.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="103.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="21">
+        <v>1</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="21">
+        <v>1</v>
+      </c>
+      <c r="E22" s="22">
+        <v>1</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="J22" s="24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="21">
+        <v>2</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="G38" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="H38" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="I38" s="23" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="23">
+        <v>1</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23">
+        <v>1</v>
+      </c>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23">
+        <v>1000</v>
+      </c>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="23">
+        <v>2</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="E40" s="23">
+        <v>2</v>
+      </c>
+      <c r="F40" s="23">
+        <v>1</v>
+      </c>
+      <c r="G40" s="23">
+        <v>20</v>
+      </c>
+      <c r="H40" s="23">
+        <v>50</v>
+      </c>
+      <c r="I40" s="23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="30">
+        <v>1</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" s="23">
+        <v>1</v>
+      </c>
+      <c r="E44" s="23">
+        <v>1000</v>
+      </c>
+      <c r="F44" s="23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="30">
+        <v>2</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D45" s="23">
+        <v>2</v>
+      </c>
+      <c r="E45" s="23">
+        <v>20</v>
+      </c>
+      <c r="F45" s="23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="30">
+        <v>2</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="D46" s="23">
+        <v>1</v>
+      </c>
+      <c r="E46" s="23">
+        <v>50</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B48" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="K48" s="25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G49" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="H49" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="J49" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="K49" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="L49" s="23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="30">
+        <v>1</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D50" s="23">
+        <v>1</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="F50" s="23">
+        <v>1</v>
+      </c>
+      <c r="G50" s="23">
+        <v>1000</v>
+      </c>
+      <c r="H50" s="23">
+        <v>1</v>
+      </c>
+      <c r="J50" s="23">
+        <v>1</v>
+      </c>
+      <c r="K50" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="L50" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="30">
+        <v>2</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D51" s="23">
+        <v>2</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="F51" s="23">
+        <v>2</v>
+      </c>
+      <c r="G51" s="23">
+        <v>20</v>
+      </c>
+      <c r="H51" s="23">
+        <v>2</v>
+      </c>
+      <c r="J51" s="23">
+        <v>2</v>
+      </c>
+      <c r="K51" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="L51" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D52" s="23">
+        <v>3</v>
+      </c>
+      <c r="E52" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F52" s="23">
+        <v>1</v>
+      </c>
+      <c r="G52" s="23">
+        <v>50</v>
+      </c>
+      <c r="H52" s="23">
+        <v>2</v>
+      </c>
+      <c r="N52" s="23"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="25"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B56" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="I56" s="25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="D57" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F57" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="H57" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="I57" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J57" s="23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="30">
+        <v>1</v>
+      </c>
+      <c r="B58" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D58" s="23">
+        <v>1</v>
+      </c>
+      <c r="E58" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="F58" s="23">
+        <v>1000</v>
+      </c>
+      <c r="H58" s="23">
+        <v>1</v>
+      </c>
+      <c r="I58" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="J58" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="30">
+        <v>2</v>
+      </c>
+      <c r="B59" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D59" s="23">
+        <v>2</v>
+      </c>
+      <c r="E59" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="F59" s="23">
+        <v>20</v>
+      </c>
+      <c r="H59" s="23">
+        <v>2</v>
+      </c>
+      <c r="I59" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="J59" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D60" s="23">
+        <v>3</v>
+      </c>
+      <c r="E60" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F60" s="23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B63" s="25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C64" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D64" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="E64" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="F64" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="23">
+        <v>1</v>
+      </c>
+      <c r="B65" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="C65" s="23">
+        <v>1</v>
+      </c>
+      <c r="D65" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E65" s="23">
+        <f>D65*19%</f>
+        <v>190</v>
+      </c>
+      <c r="F65" s="23">
+        <f>D65+E65</f>
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="23">
+        <v>2</v>
+      </c>
+      <c r="B66" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C66" s="23">
+        <v>2</v>
+      </c>
+      <c r="D66" s="23">
+        <v>90</v>
+      </c>
+      <c r="E66" s="23">
+        <f>D66*19%</f>
+        <v>17.100000000000001</v>
+      </c>
+      <c r="F66" s="23">
+        <f>D66+E66</f>
+        <v>107.1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="23"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="23"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D70" s="25" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C71" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D71" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E71" s="23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="23">
+        <v>1</v>
+      </c>
+      <c r="B72" s="23">
+        <v>1</v>
+      </c>
+      <c r="C72" s="23">
+        <v>1</v>
+      </c>
+      <c r="D72" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E72" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="23">
+        <v>2</v>
+      </c>
+      <c r="B73" s="23">
+        <v>2</v>
+      </c>
+      <c r="C73" s="23">
+        <v>2</v>
+      </c>
+      <c r="D73" s="23">
+        <v>40</v>
+      </c>
+      <c r="E73" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="23">
+        <v>3</v>
+      </c>
+      <c r="B74" s="23">
+        <v>3</v>
+      </c>
+      <c r="C74" s="23">
+        <v>1</v>
+      </c>
+      <c r="D74" s="23">
+        <v>50</v>
+      </c>
+      <c r="E74" s="23">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>